--- a/data/DailyExpenses_PythonProject.xlsx
+++ b/data/DailyExpenses_PythonProject.xlsx
@@ -329,7 +329,7 @@
     <t>Falafel - West End</t>
   </si>
   <si>
-    <t>Aluguel Car Next Door</t>
+    <t>Aluguel CarNextDoor</t>
   </si>
   <si>
     <t>Café - State Library</t>
